--- a/ciencia 2080/tweets_RTX 2080_201809061742.xlsx
+++ b/ciencia 2080/tweets_RTX 2080_201809061742.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mendes\Desktop\Trabalhos\Ciência dos Dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{431AD53E-DA92-4C39-865A-7F59719AEE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="280">
   <si>
     <t>Treinamento</t>
   </si>
@@ -881,12 +887,39 @@
   <si>
     <t>metro exodus can't manage 60 fps with rtx enabled on rtx 2080 ti https://t.co/g6bg1mlqg8</t>
   </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>relevante</t>
+  </si>
+  <si>
+    <t>irrelevante</t>
+  </si>
+  <si>
+    <t>muito irrelevante</t>
+  </si>
+  <si>
+    <t>neutro</t>
+  </si>
+  <si>
+    <t>muito relevante</t>
+  </si>
+  <si>
+    <t>Irrelevante</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>Muito Irrelevante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,24 +982,35 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1008,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,9 +1084,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,6 +1136,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1249,2544 +1329,3883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D76" zoomScale="80" workbookViewId="0">
+      <selection activeCell="AD76" sqref="AD76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="29" max="29" width="17.21875" customWidth="1"/>
+    <col min="30" max="30" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="AD1" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="AD2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="AD3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="AD4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="AD5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="AD6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="AD7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="AD8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="AD9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="AD10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="AD11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="AD12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="AD13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="AD14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="AD15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="AD16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="AD17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="AD18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="AD19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="AD20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="AD21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="AD22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="AD23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="AD24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="AD25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="AD26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="AD27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="AD28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="AD29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="AD30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="AD31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="AD32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="AD33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="AD34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="AD35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="AD36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="AD37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="AD38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="AD39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="AD40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="AD41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="AD42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="AD43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="AD44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="AD45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="AD46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="AD47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="AD48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="AD49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="AD50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="AD51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="AD52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="AD53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="AD54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="AD55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="AD56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="AD57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="AD58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="AD59" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="AD60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="AD61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="AD62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="AD63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="AD64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="AD65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="AD66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="AD67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="AD68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="AD69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="AD70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="AD71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="AD72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="AD73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="AD74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="AD75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="AD76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="AD77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="AD78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="AD79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="AD80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="AD81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="AD82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="AD83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="AD84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="AD85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="AD86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="AD87" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="AD88" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="AD89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="AD90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="AD91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="AD92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="AD93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="AD94" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="AD95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="AD96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="AD97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="AD98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="AD99" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="AD100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="AD101" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="AD102" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="AD103" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="AD104" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="AD105" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="AD106" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="AD107" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="AD108" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="AD109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="AD110" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="AD111" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="AD112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="AD113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="AD114" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="AD115" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="AD116" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="AD117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="AD118" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="AD119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="AD120" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="AD121" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="AD122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="AD123" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="AD124" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="AD125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="AD126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="AD127" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="AD128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="AD129" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="AD130" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="AD131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="AD132" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="AD133" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="AD134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="AD135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="AD136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="AD137" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="AD138" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="AD139" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="AD140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="AD141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="AD142" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="AD143" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="AD144" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="AD145" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="AD146" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="AD147" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="AD148" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="AD149" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="AD150" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="AD151" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="AD152" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="AD153" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="AD154" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="AD155" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="AD156" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="AD157" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="AD158" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="AD159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="AD160" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="AD161" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="AD162" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="AD163" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="AD164" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="AD165" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="AD166" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="AD167" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="AD168" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="AD169" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="AD170" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="AD171" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="AD172" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="AD173" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="AD174" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="AD175" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="AD176" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="AD177" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="AD178" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="AD179" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="AD180" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="AD181" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="AD182" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="AD183" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="AD184" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="AD185" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="AD186" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="AD187" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="AD188" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="AD189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="AD190" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="AD191" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="AD192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="AD193" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="AD194" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="AD195" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="AD196" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="AD197" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="AD198" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="AD199" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="AD200" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="AD201" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="AD202" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="AD203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="AD204" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="AD205" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="AD206" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="AD207" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="AD208" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="AD209" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="AD210" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="AD211" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="AD212" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="AD213" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="AD214" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="AD215" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="AD216" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="AD217" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="AD218" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="AD219" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="AD220" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="AD221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="AD222" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="AD223" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="AD224" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="AD225" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="AD226" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="AD227" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="AD228" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="AD229" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="AD230" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="AD231" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="AD232" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="AD233" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="AD234" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="AD235" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="AD236" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="AD237" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="AD238" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="AD239" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="AD240" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="AD241" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="AD242" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="AD243" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="AD244" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="AD245" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="AD246" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="AD247" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="AD248" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="AD249" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="AD250" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="AD251" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="AD252" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="AD253" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="AD254" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="AD255" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="AD256" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="AD257" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="AD258" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="AD259" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="AD260" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="AD261" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="AD262" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="AD263" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="AD264" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="AD265" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="AD266" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="AD267" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="AD268" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="AD269" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="AD270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="AD271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="AD272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="AD273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="AD274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="AD275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="AD276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="AD277" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="AD278" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="AD279" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="AD280" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="AD281" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="AD282" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="AD283" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="AD284" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="AD285" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="AD286" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="AD287" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="AD288" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="AD289" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="AD290" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="AD291" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="AD292" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="AD293" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="AD294" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="AD295" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="AD296" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="AD297" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="AD298" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="AD299" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="AD300" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="AD301" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A301" r:id="rId1"/>
+    <hyperlink ref="A301" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="28" max="28" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="AB1" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="AB2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="AB3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="AB4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="AB5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="AB6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="AB7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="AB8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="AB9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="AB10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="AB11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="AB12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="AB13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="AB14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="AB15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="AB16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="AB17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="AB18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="AB19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="AB20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="AB21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="AB22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="AB23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="AB24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="AB25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="AB26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="AB27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="AB28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="AB29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="AB30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="AB31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="AB32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="AB33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="AB34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="AB35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="AB36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="AB37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="AB38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="AB39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="AB40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="AB41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="AB42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="AB43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="AB44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="AB45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="AB46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="AB47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="AB48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="AB49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="AB50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="AB51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="AB52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="AB53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="AB54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="AB55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="AB56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="AB57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="AB58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="AB59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="AB60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="AB61" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="AB62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="AB63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="AB64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="AB65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="AB66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="AB67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="AB68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="AB69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="AB70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="AB71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="AB72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="AB73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="AB74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="AB75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="AB76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="AB77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="AB78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="AB79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="AB80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="AB141" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="AB142" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="AB143" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="AB144" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="AB145" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="AB146" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="AB147" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="AB148" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="AB149" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="AB150" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="AB151" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="AB152" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="AB153" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="AB154" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="AB155" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="AB156" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="AB157" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="AB158" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="AB159" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="AB160" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="AB161" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="AB162" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="AB163" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="AB164" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="AB165" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="AB166" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="AB167" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="AB168" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="AB169" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="AB170" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="AB171" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="AB172" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="AB173" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="AB174" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="AB175" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="AB176" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="AB177" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="AB178" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="AB179" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="AB180" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="AB181" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="AB182" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="AB183" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="AB184" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="AB185" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="AB186" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="AB187" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="AB188" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="AB189" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="AB190" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="AB191" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="AB192" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="AB193" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="AB194" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="AB195" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="AB196" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="AB197" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="AB198" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="AB199" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="AB200" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
+      </c>
+      <c r="AB201" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A53" r:id="rId1"/>
-    <hyperlink ref="A104" r:id="rId2"/>
+    <hyperlink ref="A53" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A104" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>